--- a/summer_2019_edited_csv/Copy of Anderson 7.xlsx
+++ b/summer_2019_edited_csv/Copy of Anderson 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105103CC-9142-4C11-A42B-8C208A0C3AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D44FAE-0EC2-43CF-A818-1BF82F9A823C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,25 +66,25 @@
     <t>&lt;1</t>
   </si>
   <si>
-    <t>Coregonus_hoyi_8_na_in_4_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_8_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_23_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_81_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_13_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_20_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
-  </si>
-  <si>
-    <t>Coregonus_hoyi_8_na_in_12_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+    <t>Coregonus_hoyi_8_na_in_12_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_20_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_13_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_81_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_23_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_8_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
+  </si>
+  <si>
+    <t>Coregonus_hoyi_8_na_in_4_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl9</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,25 +418,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
